--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8748.165803468515</v>
+        <v>1740884.994890236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8748.165803468515</v>
+        <v>1740884.994890236</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16173.57393306824</v>
+        <v>970414.435984095</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16173.57393306824</v>
+        <v>970414.435984095</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036204371.839382</v>
+        <v>42403644.64898345</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9995.24798984854</v>
+        <v>1040428.957524293</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18880.34213492227</v>
+        <v>1890508.459748793</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27765.43627999597</v>
+        <v>2740587.961973296</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37593.11813309041</v>
+        <v>3539593.521347424</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47402.29443632493</v>
+        <v>4339373.456921552</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56387.21598627546</v>
+        <v>5189452.959146054</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65558.9908695593</v>
+        <v>6050973.634703885</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74673.27241950983</v>
+        <v>6901053.136928383</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84324.60782989435</v>
+        <v>7677294.983798971</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93640.78390434277</v>
+        <v>8502669.920601021</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102658.8163348737</v>
+        <v>9359338.488061024</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>111643.7378848242</v>
+        <v>10209417.99028553</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>120628.6594347747</v>
+        <v>11059497.49251004</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>129971.0983099487</v>
+        <v>11880524.53157748</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139679.9270536666</v>
+        <v>12668207.55178142</v>
       </c>
     </row>
   </sheetData>
